--- a/data/trans_bre/P16A13-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A13-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,09%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 2,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 3,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 5,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,82; 8,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,72; 77,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,05; 63,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,84; 142,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,91; 74,86</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,25%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 2,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 1,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 1,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 1,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,21; 230,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,49; 69,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,47; 71,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,97; 45,19</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,42%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,37; 0,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 4,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 2,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,38; 0,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,88; 31,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,02; 210,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,0; 169,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,4; 20,32</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,84%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 1,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 2,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 2,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 2,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 74,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,74; 66,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,02; 87,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,13; 49,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A13-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>42,44%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 8,17</t>
+          <t>2,08; 8,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,91; 74,86</t>
+          <t>13,21; 77,93</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>14,93%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,94</t>
+          <t>-1,09; 2,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 45,19</t>
+          <t>-20,65; 63,45</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-19,42%</t>
+          <t>-18,94%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 0,94</t>
+          <t>-3,3; 0,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,4; 20,32</t>
+          <t>-45,69; 21,01</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>30,29%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,87</t>
+          <t>0,15; 3,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 49,24</t>
+          <t>3,7; 68,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A13-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,7</t>
+          <t>-0,65; 2,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,56</t>
+          <t>-0,99; 3,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,17</t>
+          <t>0,57; 5,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 8,44</t>
+          <t>2,24; 8,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 77,41</t>
+          <t>-12,58; 76,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 63,3</t>
+          <t>-11,95; 63,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 142,35</t>
+          <t>8,3; 142,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,21; 77,93</t>
+          <t>14,55; 79,98</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,28</t>
+          <t>0,24; 2,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,61</t>
+          <t>-0,83; 1,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,34</t>
+          <t>-0,65; 1,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,33</t>
+          <t>-1,0; 2,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,21; 230,48</t>
+          <t>10,26; 219,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 69,54</t>
+          <t>-25,42; 68,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,47; 71,63</t>
+          <t>-23,7; 72,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 63,45</t>
+          <t>-18,0; 73,04</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 0,39</t>
+          <t>-3,31; 0,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 4,64</t>
+          <t>-1,52; 4,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 2,75</t>
+          <t>-1,91; 2,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 0,98</t>
+          <t>-3,24; 1,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-83,88; 31,95</t>
+          <t>-81,95; 34,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 210,06</t>
+          <t>-32,87; 209,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,0; 169,39</t>
+          <t>-51,65; 175,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-45,69; 21,01</t>
+          <t>-45,33; 23,9</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,73</t>
+          <t>0,17; 1,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,37</t>
+          <t>0,09; 2,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,14</t>
+          <t>0,15; 2,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,33</t>
+          <t>0,29; 3,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 74,04</t>
+          <t>4,84; 78,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,74; 66,12</t>
+          <t>1,71; 63,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,02; 87,52</t>
+          <t>5,58; 82,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 68,77</t>
+          <t>5,62; 70,03</t>
         </is>
       </c>
     </row>
